--- a/table/DGP6_table.xlsx
+++ b/table/DGP6_table.xlsx
@@ -380,7 +380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/table/DGP6_table.xlsx
+++ b/table/DGP6_table.xlsx
@@ -425,37 +425,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.908</v>
+        <v>0.936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9275</v>
+        <v>0.953</v>
       </c>
       <c r="G2" t="n">
-        <v>4.23363042793528</v>
+        <v>4.21944990194272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2523361472484</v>
+        <v>3.01200600837332</v>
       </c>
       <c r="I2" t="n">
-        <v>48.6774901618697</v>
+        <v>43.0626062420683</v>
       </c>
       <c r="J2" t="n">
-        <v>32.6333363427745</v>
+        <v>24.8976458856172</v>
       </c>
       <c r="K2" t="n">
-        <v>26.9564780171063</v>
+        <v>26.854393641444</v>
       </c>
       <c r="L2" t="n">
-        <v>26.3864994211114</v>
+        <v>25.6756413953924</v>
       </c>
     </row>
     <row r="3">
@@ -463,37 +463,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.907</v>
+        <v>0.918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9265</v>
+        <v>0.948</v>
       </c>
       <c r="G3" t="n">
-        <v>4.48557766319733</v>
+        <v>4.29022526705332</v>
       </c>
       <c r="H3" t="n">
-        <v>3.28923789320102</v>
+        <v>3.05380071714045</v>
       </c>
       <c r="I3" t="n">
-        <v>53.3637864118262</v>
+        <v>49.3825459124935</v>
       </c>
       <c r="J3" t="n">
-        <v>35.5121749761281</v>
+        <v>29.6289874194674</v>
       </c>
       <c r="K3" t="n">
-        <v>27.3509570462762</v>
+        <v>27.2056019216189</v>
       </c>
       <c r="L3" t="n">
-        <v>26.9312426364678</v>
+        <v>26.1766170693049</v>
       </c>
     </row>
     <row r="4">
@@ -501,37 +501,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.903</v>
+        <v>0.92</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9245</v>
+        <v>0.946</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5538270557731</v>
+        <v>4.44324180955094</v>
       </c>
       <c r="H4" t="n">
-        <v>3.40523907584523</v>
+        <v>3.07957902157982</v>
       </c>
       <c r="I4" t="n">
-        <v>56.2602298761038</v>
+        <v>51.7142470806187</v>
       </c>
       <c r="J4" t="n">
-        <v>37.7635218004049</v>
+        <v>30.9267233707699</v>
       </c>
       <c r="K4" t="n">
-        <v>27.5524777053431</v>
+        <v>27.221753450415</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0028959765219</v>
+        <v>26.2362196063711</v>
       </c>
     </row>
     <row r="5">
@@ -539,37 +539,37 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9225</v>
+        <v>0.9365</v>
       </c>
       <c r="G5" t="n">
-        <v>4.61587434317175</v>
+        <v>4.64561889590975</v>
       </c>
       <c r="H5" t="n">
-        <v>3.49436533985203</v>
+        <v>3.19489379716136</v>
       </c>
       <c r="I5" t="n">
-        <v>55.1062102833658</v>
+        <v>52.3834029982402</v>
       </c>
       <c r="J5" t="n">
-        <v>37.493435252302</v>
+        <v>32.0013831617322</v>
       </c>
       <c r="K5" t="n">
-        <v>27.5482887436211</v>
+        <v>27.337624025508</v>
       </c>
       <c r="L5" t="n">
-        <v>27.225808698082</v>
+        <v>26.2781492173185</v>
       </c>
     </row>
     <row r="6">
@@ -577,37 +577,37 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9005</v>
+        <v>0.917</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9205</v>
+        <v>0.941</v>
       </c>
       <c r="G6" t="n">
-        <v>4.45843156471892</v>
+        <v>4.42608669296123</v>
       </c>
       <c r="H6" t="n">
-        <v>3.37390334066804</v>
+        <v>3.23156255075956</v>
       </c>
       <c r="I6" t="n">
-        <v>56.9099723529684</v>
+        <v>51.5998968960983</v>
       </c>
       <c r="J6" t="n">
-        <v>39.2763012187678</v>
+        <v>31.686785347804</v>
       </c>
       <c r="K6" t="n">
-        <v>27.651221146701</v>
+        <v>27.4322818858858</v>
       </c>
       <c r="L6" t="n">
-        <v>27.3696907682783</v>
+        <v>26.5287484165174</v>
       </c>
     </row>
     <row r="7">
@@ -615,37 +615,37 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8965</v>
+        <v>0.914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9175</v>
+        <v>0.944</v>
       </c>
       <c r="G7" t="n">
-        <v>4.81176474730525</v>
+        <v>4.49155545414403</v>
       </c>
       <c r="H7" t="n">
-        <v>3.654766606748</v>
+        <v>3.24693723886918</v>
       </c>
       <c r="I7" t="n">
-        <v>58.2064755450063</v>
+        <v>52.2816486954375</v>
       </c>
       <c r="J7" t="n">
-        <v>40.3817016694332</v>
+        <v>31.7506512376138</v>
       </c>
       <c r="K7" t="n">
-        <v>27.661752024719</v>
+        <v>27.2092314623009</v>
       </c>
       <c r="L7" t="n">
-        <v>27.2341157368733</v>
+        <v>26.4342270763565</v>
       </c>
     </row>
     <row r="8">
@@ -653,37 +653,37 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.899</v>
+        <v>0.907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.92</v>
+        <v>0.934</v>
       </c>
       <c r="G8" t="n">
-        <v>4.55157958337778</v>
+        <v>4.6742501959165</v>
       </c>
       <c r="H8" t="n">
-        <v>3.42007661777333</v>
+        <v>3.35284466893891</v>
       </c>
       <c r="I8" t="n">
-        <v>57.5200834608789</v>
+        <v>55.1447270219099</v>
       </c>
       <c r="J8" t="n">
-        <v>40.0490376175671</v>
+        <v>34.1040495313633</v>
       </c>
       <c r="K8" t="n">
-        <v>27.6878243532228</v>
+        <v>27.4363610609261</v>
       </c>
       <c r="L8" t="n">
-        <v>27.3585010361425</v>
+        <v>26.3715269321631</v>
       </c>
     </row>
     <row r="9">
@@ -691,37 +691,37 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8985</v>
+        <v>0.903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.919</v>
+        <v>0.9385</v>
       </c>
       <c r="G9" t="n">
-        <v>4.71965975171836</v>
+        <v>4.47832454431742</v>
       </c>
       <c r="H9" t="n">
-        <v>3.67264322965117</v>
+        <v>3.20871668011501</v>
       </c>
       <c r="I9" t="n">
-        <v>62.1607083888708</v>
+        <v>56.8608093333146</v>
       </c>
       <c r="J9" t="n">
-        <v>43.9713892555737</v>
+        <v>34.467056784574</v>
       </c>
       <c r="K9" t="n">
-        <v>27.6446863179964</v>
+        <v>27.3664741149508</v>
       </c>
       <c r="L9" t="n">
-        <v>27.345188861611</v>
+        <v>26.5581985395438</v>
       </c>
     </row>
     <row r="10">
@@ -729,37 +729,37 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9015</v>
+        <v>0.914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9205</v>
+        <v>0.9405</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4460401822689</v>
+        <v>4.5616478896729</v>
       </c>
       <c r="H10" t="n">
-        <v>3.50178461161558</v>
+        <v>3.23051321518338</v>
       </c>
       <c r="I10" t="n">
-        <v>59.8868231010668</v>
+        <v>54.8784301990325</v>
       </c>
       <c r="J10" t="n">
-        <v>42.5577544879879</v>
+        <v>33.7813406689998</v>
       </c>
       <c r="K10" t="n">
-        <v>27.8529560871818</v>
+        <v>27.2094919388118</v>
       </c>
       <c r="L10" t="n">
-        <v>27.4599997221482</v>
+        <v>26.5102523103394</v>
       </c>
     </row>
     <row r="11">
@@ -767,37 +767,37 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.898</v>
+        <v>0.908</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9175</v>
+        <v>0.9385</v>
       </c>
       <c r="G11" t="n">
-        <v>4.56195069308749</v>
+        <v>4.49219784573713</v>
       </c>
       <c r="H11" t="n">
-        <v>3.48057617402125</v>
+        <v>3.32572661598916</v>
       </c>
       <c r="I11" t="n">
-        <v>61.0511848903127</v>
+        <v>55.4183302729971</v>
       </c>
       <c r="J11" t="n">
-        <v>43.1964715867988</v>
+        <v>34.2770952785547</v>
       </c>
       <c r="K11" t="n">
-        <v>27.9692182030836</v>
+        <v>27.4436925688937</v>
       </c>
       <c r="L11" t="n">
-        <v>27.5286556557735</v>
+        <v>26.5106939032074</v>
       </c>
     </row>
     <row r="12">
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>70</v>
@@ -814,28 +814,28 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9405</v>
+        <v>0.9315</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9655</v>
+        <v>0.9555</v>
       </c>
       <c r="G12" t="n">
-        <v>4.15408181236459</v>
+        <v>4.00214321113629</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88879856955255</v>
+        <v>2.82037115070408</v>
       </c>
       <c r="I12" t="n">
-        <v>40.8832575723589</v>
+        <v>42.4358340102961</v>
       </c>
       <c r="J12" t="n">
-        <v>22.1753824812933</v>
+        <v>22.4228304008278</v>
       </c>
       <c r="K12" t="n">
-        <v>26.4796081459242</v>
+        <v>26.4930650533582</v>
       </c>
       <c r="L12" t="n">
-        <v>24.7074985465458</v>
+        <v>24.4279860133754</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>70</v>
@@ -852,28 +852,28 @@
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.926</v>
+        <v>0.928</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9555</v>
+        <v>0.954</v>
       </c>
       <c r="G13" t="n">
-        <v>4.15130460915575</v>
+        <v>4.1444232215953</v>
       </c>
       <c r="H13" t="n">
-        <v>2.84421949669838</v>
+        <v>2.88487258558485</v>
       </c>
       <c r="I13" t="n">
-        <v>44.0881907595843</v>
+        <v>45.4543057004754</v>
       </c>
       <c r="J13" t="n">
-        <v>24.9054370960679</v>
+        <v>24.8400490830049</v>
       </c>
       <c r="K13" t="n">
-        <v>26.3622315568582</v>
+        <v>26.6268571673331</v>
       </c>
       <c r="L13" t="n">
-        <v>24.8103423073686</v>
+        <v>24.896901958743</v>
       </c>
     </row>
     <row r="14">
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>70</v>
@@ -890,28 +890,28 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0.926</v>
+        <v>0.924</v>
       </c>
       <c r="F14" t="n">
-        <v>0.956</v>
+        <v>0.958</v>
       </c>
       <c r="G14" t="n">
-        <v>4.37058237148265</v>
+        <v>4.39735085365925</v>
       </c>
       <c r="H14" t="n">
-        <v>3.03222463192374</v>
+        <v>2.80965854437542</v>
       </c>
       <c r="I14" t="n">
-        <v>46.1964062259574</v>
+        <v>48.8018094163719</v>
       </c>
       <c r="J14" t="n">
-        <v>26.0504246919515</v>
+        <v>25.9329428061481</v>
       </c>
       <c r="K14" t="n">
-        <v>26.6031016985419</v>
+        <v>26.8793433665249</v>
       </c>
       <c r="L14" t="n">
-        <v>25.082718651021</v>
+        <v>24.9746000367827</v>
       </c>
     </row>
     <row r="15">
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>70</v>
@@ -928,28 +928,28 @@
         <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.917</v>
+        <v>0.9265</v>
       </c>
       <c r="F15" t="n">
-        <v>0.949</v>
+        <v>0.957</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3813290208677</v>
+        <v>4.46014272288172</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05717535379536</v>
+        <v>2.99635237158647</v>
       </c>
       <c r="I15" t="n">
-        <v>48.914178386846</v>
+        <v>53.2611683367133</v>
       </c>
       <c r="J15" t="n">
-        <v>28.2286969710836</v>
+        <v>27.6743032831346</v>
       </c>
       <c r="K15" t="n">
-        <v>26.557094953796</v>
+        <v>26.8444555140217</v>
       </c>
       <c r="L15" t="n">
-        <v>25.0087592035624</v>
+        <v>24.9343668087705</v>
       </c>
     </row>
     <row r="16">
@@ -957,7 +957,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
         <v>70</v>
@@ -966,28 +966,28 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9315</v>
+        <v>0.9165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9515</v>
+        <v>0.951</v>
       </c>
       <c r="G16" t="n">
-        <v>4.05061048470563</v>
+        <v>4.39276440589873</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88542618649114</v>
+        <v>2.84817858249756</v>
       </c>
       <c r="I16" t="n">
-        <v>45.5915596446012</v>
+        <v>51.3376052372483</v>
       </c>
       <c r="J16" t="n">
-        <v>26.1120101892786</v>
+        <v>27.9088914099515</v>
       </c>
       <c r="K16" t="n">
-        <v>26.7715885183827</v>
+        <v>26.823897831728</v>
       </c>
       <c r="L16" t="n">
-        <v>25.0871053569279</v>
+        <v>24.9973028534984</v>
       </c>
     </row>
     <row r="17">
@@ -995,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>70</v>
@@ -1004,28 +1004,28 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9245</v>
+        <v>0.927</v>
       </c>
       <c r="F17" t="n">
-        <v>0.957</v>
+        <v>0.959</v>
       </c>
       <c r="G17" t="n">
-        <v>4.285579839857</v>
+        <v>4.40392903145385</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98683032507106</v>
+        <v>2.93577198427311</v>
       </c>
       <c r="I17" t="n">
-        <v>48.3523752192568</v>
+        <v>49.0490564921984</v>
       </c>
       <c r="J17" t="n">
-        <v>27.2751323423836</v>
+        <v>27.0838014767433</v>
       </c>
       <c r="K17" t="n">
-        <v>26.8786143858572</v>
+        <v>26.7505284842038</v>
       </c>
       <c r="L17" t="n">
-        <v>25.2841266363191</v>
+        <v>24.9895388839664</v>
       </c>
     </row>
     <row r="18">
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>70</v>
@@ -1042,28 +1042,28 @@
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9245</v>
+        <v>0.93</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9595</v>
+        <v>0.9605</v>
       </c>
       <c r="G18" t="n">
-        <v>4.51500675513618</v>
+        <v>4.35735170057241</v>
       </c>
       <c r="H18" t="n">
-        <v>3.06593254187115</v>
+        <v>2.90276014960273</v>
       </c>
       <c r="I18" t="n">
-        <v>51.0606598105177</v>
+        <v>48.5492036433185</v>
       </c>
       <c r="J18" t="n">
-        <v>28.5462287428915</v>
+        <v>26.4917076774564</v>
       </c>
       <c r="K18" t="n">
-        <v>27.1309590111826</v>
+        <v>26.9318309128675</v>
       </c>
       <c r="L18" t="n">
-        <v>25.6905794825247</v>
+        <v>25.1389819476949</v>
       </c>
     </row>
     <row r="19">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
         <v>70</v>
@@ -1080,28 +1080,28 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9275</v>
+        <v>0.9205</v>
       </c>
       <c r="F19" t="n">
-        <v>0.96</v>
+        <v>0.9545</v>
       </c>
       <c r="G19" t="n">
-        <v>4.42814661577224</v>
+        <v>4.18173141478315</v>
       </c>
       <c r="H19" t="n">
-        <v>3.00998268590349</v>
+        <v>2.836797949781</v>
       </c>
       <c r="I19" t="n">
-        <v>52.578334927005</v>
+        <v>48.5674230621222</v>
       </c>
       <c r="J19" t="n">
-        <v>30.2773671592452</v>
+        <v>26.9929135120949</v>
       </c>
       <c r="K19" t="n">
-        <v>26.8988354425658</v>
+        <v>26.8530365505094</v>
       </c>
       <c r="L19" t="n">
-        <v>25.492880178899</v>
+        <v>25.0241633883817</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
         <v>70</v>
@@ -1118,28 +1118,28 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.921</v>
+        <v>0.9255</v>
       </c>
       <c r="F20" t="n">
         <v>0.9515</v>
       </c>
       <c r="G20" t="n">
-        <v>4.28986112853437</v>
+        <v>4.28886764053923</v>
       </c>
       <c r="H20" t="n">
-        <v>3.07905599849594</v>
+        <v>2.90146374402366</v>
       </c>
       <c r="I20" t="n">
-        <v>51.769307238045</v>
+        <v>49.1748786661739</v>
       </c>
       <c r="J20" t="n">
-        <v>30.1757098094273</v>
+        <v>27.6217610412753</v>
       </c>
       <c r="K20" t="n">
-        <v>26.8441738596466</v>
+        <v>26.9207700655986</v>
       </c>
       <c r="L20" t="n">
-        <v>25.4726239440018</v>
+        <v>25.3436055139093</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
         <v>70</v>
@@ -1156,28 +1156,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9145</v>
+        <v>0.926</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9425</v>
+        <v>0.9555</v>
       </c>
       <c r="G21" t="n">
-        <v>4.33676423419684</v>
+        <v>4.32907860030173</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96597728846624</v>
+        <v>2.80636746944727</v>
       </c>
       <c r="I21" t="n">
-        <v>53.4481742591436</v>
+        <v>48.1057079869109</v>
       </c>
       <c r="J21" t="n">
-        <v>31.3056899982602</v>
+        <v>25.9091845263731</v>
       </c>
       <c r="K21" t="n">
-        <v>26.9131610312805</v>
+        <v>26.8270129824289</v>
       </c>
       <c r="L21" t="n">
-        <v>25.5510343765111</v>
+        <v>25.1141092357136</v>
       </c>
     </row>
     <row r="22">
@@ -1185,37 +1185,37 @@
         <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9215</v>
+        <v>0.926</v>
       </c>
       <c r="F22" t="n">
-        <v>0.936</v>
+        <v>0.947</v>
       </c>
       <c r="G22" t="n">
-        <v>4.02348557319245</v>
+        <v>3.93385666148958</v>
       </c>
       <c r="H22" t="n">
-        <v>3.30269904443887</v>
+        <v>2.9829606600848</v>
       </c>
       <c r="I22" t="n">
-        <v>40.9255038814576</v>
+        <v>43.0026650180988</v>
       </c>
       <c r="J22" t="n">
-        <v>29.7715626682769</v>
+        <v>27.1913849073891</v>
       </c>
       <c r="K22" t="n">
-        <v>26.5875791100696</v>
+        <v>27.3457850359664</v>
       </c>
       <c r="L22" t="n">
-        <v>26.5466609444065</v>
+        <v>26.3332355334305</v>
       </c>
     </row>
     <row r="23">
@@ -1223,37 +1223,37 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.918</v>
+        <v>0.923</v>
       </c>
       <c r="F23" t="n">
-        <v>0.93</v>
+        <v>0.948</v>
       </c>
       <c r="G23" t="n">
-        <v>4.39249919422357</v>
+        <v>4.51123928762267</v>
       </c>
       <c r="H23" t="n">
-        <v>3.52893831611786</v>
+        <v>3.13418207399988</v>
       </c>
       <c r="I23" t="n">
-        <v>48.4218037719489</v>
+        <v>49.7151810058772</v>
       </c>
       <c r="J23" t="n">
-        <v>35.7949992597305</v>
+        <v>30.6090230288373</v>
       </c>
       <c r="K23" t="n">
-        <v>26.9461519005013</v>
+        <v>27.7807197935849</v>
       </c>
       <c r="L23" t="n">
-        <v>27.2223507532685</v>
+        <v>26.931938671629</v>
       </c>
     </row>
     <row r="24">
@@ -1261,37 +1261,37 @@
         <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9175</v>
+        <v>0.916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.935</v>
+        <v>0.942</v>
       </c>
       <c r="G24" t="n">
-        <v>4.33715471676646</v>
+        <v>4.3770269417532</v>
       </c>
       <c r="H24" t="n">
-        <v>3.62421171816889</v>
+        <v>3.18394002666407</v>
       </c>
       <c r="I24" t="n">
-        <v>50.6306522966136</v>
+        <v>49.8720369602948</v>
       </c>
       <c r="J24" t="n">
-        <v>37.3629528063696</v>
+        <v>32.1345472930544</v>
       </c>
       <c r="K24" t="n">
-        <v>27.2594316686827</v>
+        <v>27.3716925300232</v>
       </c>
       <c r="L24" t="n">
-        <v>27.4612634731239</v>
+        <v>26.8634588171029</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1299,37 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9075</v>
+        <v>0.919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9305</v>
+        <v>0.9435</v>
       </c>
       <c r="G25" t="n">
-        <v>4.63370587097636</v>
+        <v>4.30637532883</v>
       </c>
       <c r="H25" t="n">
-        <v>3.71067238229629</v>
+        <v>3.29885925593004</v>
       </c>
       <c r="I25" t="n">
-        <v>53.5945160082019</v>
+        <v>51.891591620725</v>
       </c>
       <c r="J25" t="n">
-        <v>39.0820828532485</v>
+        <v>33.2065716425575</v>
       </c>
       <c r="K25" t="n">
-        <v>27.2738426098123</v>
+        <v>27.7963506439125</v>
       </c>
       <c r="L25" t="n">
-        <v>27.3866733711779</v>
+        <v>27.0094128311159</v>
       </c>
     </row>
     <row r="26">
@@ -1337,37 +1337,37 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8955</v>
+        <v>0.915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.915</v>
+        <v>0.9445</v>
       </c>
       <c r="G26" t="n">
-        <v>4.67861187665809</v>
+        <v>4.47095364392354</v>
       </c>
       <c r="H26" t="n">
-        <v>3.62554443180461</v>
+        <v>3.43232358292662</v>
       </c>
       <c r="I26" t="n">
-        <v>55.3387751871621</v>
+        <v>53.5465925938446</v>
       </c>
       <c r="J26" t="n">
-        <v>41.1188803210414</v>
+        <v>34.2800176606588</v>
       </c>
       <c r="K26" t="n">
-        <v>27.4175053718953</v>
+        <v>27.861254422386</v>
       </c>
       <c r="L26" t="n">
-        <v>27.4989084739291</v>
+        <v>26.9947769541106</v>
       </c>
     </row>
     <row r="27">
@@ -1375,37 +1375,37 @@
         <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9065</v>
+        <v>0.913</v>
       </c>
       <c r="F27" t="n">
-        <v>0.931</v>
+        <v>0.941</v>
       </c>
       <c r="G27" t="n">
-        <v>4.56791927258386</v>
+        <v>4.45548948816885</v>
       </c>
       <c r="H27" t="n">
-        <v>3.59807829868807</v>
+        <v>3.29652118506549</v>
       </c>
       <c r="I27" t="n">
-        <v>53.0700070400341</v>
+        <v>58.1336687377259</v>
       </c>
       <c r="J27" t="n">
-        <v>38.7778840908497</v>
+        <v>36.6457319254905</v>
       </c>
       <c r="K27" t="n">
-        <v>27.2451792851953</v>
+        <v>27.6431521270331</v>
       </c>
       <c r="L27" t="n">
-        <v>27.4456300761275</v>
+        <v>27.1019950153506</v>
       </c>
     </row>
     <row r="28">
@@ -1413,37 +1413,37 @@
         <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>0.895</v>
+        <v>0.9165</v>
       </c>
       <c r="F28" t="n">
-        <v>0.913</v>
+        <v>0.941</v>
       </c>
       <c r="G28" t="n">
-        <v>4.6679837520947</v>
+        <v>4.53449401130332</v>
       </c>
       <c r="H28" t="n">
-        <v>3.67092391608665</v>
+        <v>3.29079669913884</v>
       </c>
       <c r="I28" t="n">
-        <v>56.839770563331</v>
+        <v>54.4772056316578</v>
       </c>
       <c r="J28" t="n">
-        <v>43.5690677972173</v>
+        <v>34.4701260830161</v>
       </c>
       <c r="K28" t="n">
-        <v>27.2143335816923</v>
+        <v>27.6015939335411</v>
       </c>
       <c r="L28" t="n">
-        <v>27.5387094660287</v>
+        <v>26.9493872016091</v>
       </c>
     </row>
     <row r="29">
@@ -1451,37 +1451,37 @@
         <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.894</v>
+        <v>0.916</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9155</v>
+        <v>0.941</v>
       </c>
       <c r="G29" t="n">
-        <v>4.44027616393971</v>
+        <v>4.53932389486511</v>
       </c>
       <c r="H29" t="n">
-        <v>3.59873439144062</v>
+        <v>3.38052943311271</v>
       </c>
       <c r="I29" t="n">
-        <v>58.1699843653861</v>
+        <v>54.7920656424435</v>
       </c>
       <c r="J29" t="n">
-        <v>42.1094372715495</v>
+        <v>36.3007392095109</v>
       </c>
       <c r="K29" t="n">
-        <v>27.2416926330227</v>
+        <v>27.6895189351399</v>
       </c>
       <c r="L29" t="n">
-        <v>27.4126785057399</v>
+        <v>26.9078125568722</v>
       </c>
     </row>
     <row r="30">
@@ -1489,37 +1489,37 @@
         <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8955</v>
+        <v>0.923</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9225</v>
+        <v>0.946</v>
       </c>
       <c r="G30" t="n">
-        <v>4.71515159005967</v>
+        <v>4.52921040732746</v>
       </c>
       <c r="H30" t="n">
-        <v>3.63540822054308</v>
+        <v>3.20053049839534</v>
       </c>
       <c r="I30" t="n">
-        <v>60.4523759650269</v>
+        <v>58.0950134533227</v>
       </c>
       <c r="J30" t="n">
-        <v>44.9103001986965</v>
+        <v>37.5293009338468</v>
       </c>
       <c r="K30" t="n">
-        <v>27.4035290326466</v>
+        <v>27.7767788729819</v>
       </c>
       <c r="L30" t="n">
-        <v>27.5332711981919</v>
+        <v>27.2455083244587</v>
       </c>
     </row>
     <row r="31">
@@ -1527,37 +1527,37 @@
         <v>12</v>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.91</v>
+        <v>0.919</v>
       </c>
       <c r="F31" t="n">
-        <v>0.931</v>
+        <v>0.9415</v>
       </c>
       <c r="G31" t="n">
-        <v>4.76486482015563</v>
+        <v>4.45520608213944</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65937719068062</v>
+        <v>3.33171617246043</v>
       </c>
       <c r="I31" t="n">
-        <v>58.7202342327593</v>
+        <v>56.2635608545576</v>
       </c>
       <c r="J31" t="n">
-        <v>43.6764666385152</v>
+        <v>37.5789745953516</v>
       </c>
       <c r="K31" t="n">
-        <v>27.3703279772035</v>
+        <v>27.8945440957774</v>
       </c>
       <c r="L31" t="n">
-        <v>27.7876167653705</v>
+        <v>27.2618629793948</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C32" t="n">
         <v>70</v>
@@ -1574,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9455</v>
+        <v>0.9435</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9655</v>
+        <v>0.9685</v>
       </c>
       <c r="G32" t="n">
-        <v>3.97765136099134</v>
+        <v>4.12511270203036</v>
       </c>
       <c r="H32" t="n">
-        <v>2.91201871401445</v>
+        <v>2.86024003606599</v>
       </c>
       <c r="I32" t="n">
-        <v>38.2605292626067</v>
+        <v>39.3517323451613</v>
       </c>
       <c r="J32" t="n">
-        <v>23.4975052380863</v>
+        <v>22.0489486437385</v>
       </c>
       <c r="K32" t="n">
-        <v>26.2465025087268</v>
+        <v>26.2093792908159</v>
       </c>
       <c r="L32" t="n">
-        <v>24.9643802333108</v>
+        <v>24.7112373121912</v>
       </c>
     </row>
     <row r="33">
@@ -1603,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C33" t="n">
         <v>70</v>
@@ -1612,28 +1612,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9295</v>
+        <v>0.939</v>
       </c>
       <c r="F33" t="n">
-        <v>0.955</v>
+        <v>0.963</v>
       </c>
       <c r="G33" t="n">
-        <v>4.16892571973</v>
+        <v>4.36407662870968</v>
       </c>
       <c r="H33" t="n">
-        <v>2.97554913803267</v>
+        <v>2.89616137957099</v>
       </c>
       <c r="I33" t="n">
-        <v>44.0266751931565</v>
+        <v>42.1603456037931</v>
       </c>
       <c r="J33" t="n">
-        <v>26.8652902681472</v>
+        <v>24.1803441753188</v>
       </c>
       <c r="K33" t="n">
-        <v>26.4421734795584</v>
+        <v>26.1939245079011</v>
       </c>
       <c r="L33" t="n">
-        <v>25.255264038452</v>
+        <v>24.7874088732941</v>
       </c>
     </row>
     <row r="34">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" t="n">
         <v>70</v>
@@ -1650,28 +1650,28 @@
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9235</v>
+        <v>0.9305</v>
       </c>
       <c r="F34" t="n">
-        <v>0.954</v>
+        <v>0.959</v>
       </c>
       <c r="G34" t="n">
-        <v>4.40915138884532</v>
+        <v>4.34127124495691</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1221396160861</v>
+        <v>2.99584067835404</v>
       </c>
       <c r="I34" t="n">
-        <v>44.5160255206092</v>
+        <v>44.2209610759186</v>
       </c>
       <c r="J34" t="n">
-        <v>26.9490833356381</v>
+        <v>25.9177071351013</v>
       </c>
       <c r="K34" t="n">
-        <v>26.6236103661805</v>
+        <v>26.5030790507804</v>
       </c>
       <c r="L34" t="n">
-        <v>25.4627216346167</v>
+        <v>25.1617949242134</v>
       </c>
     </row>
     <row r="35">
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C35" t="n">
         <v>70</v>
@@ -1688,28 +1688,28 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9265</v>
+        <v>0.929</v>
       </c>
       <c r="F35" t="n">
-        <v>0.955</v>
+        <v>0.9515</v>
       </c>
       <c r="G35" t="n">
-        <v>4.20733401477601</v>
+        <v>4.11619104904839</v>
       </c>
       <c r="H35" t="n">
-        <v>2.93568846421433</v>
+        <v>2.99852445641695</v>
       </c>
       <c r="I35" t="n">
-        <v>45.8005440639483</v>
+        <v>45.0485051795388</v>
       </c>
       <c r="J35" t="n">
-        <v>27.6964191284635</v>
+        <v>27.4310031376538</v>
       </c>
       <c r="K35" t="n">
-        <v>26.6607984738485</v>
+        <v>26.5599995796788</v>
       </c>
       <c r="L35" t="n">
-        <v>25.5603966047597</v>
+        <v>25.4125328323533</v>
       </c>
     </row>
     <row r="36">
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C36" t="n">
         <v>70</v>
@@ -1726,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.927</v>
+        <v>0.9235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.945</v>
+        <v>0.9585</v>
       </c>
       <c r="G36" t="n">
-        <v>4.19808532873705</v>
+        <v>4.34316957564878</v>
       </c>
       <c r="H36" t="n">
-        <v>3.00001037397645</v>
+        <v>3.02941836289645</v>
       </c>
       <c r="I36" t="n">
-        <v>50.0422679410308</v>
+        <v>47.3844891764351</v>
       </c>
       <c r="J36" t="n">
-        <v>30.650972848049</v>
+        <v>27.4687596088218</v>
       </c>
       <c r="K36" t="n">
-        <v>26.8750555829605</v>
+        <v>26.6685024875437</v>
       </c>
       <c r="L36" t="n">
-        <v>25.72807717151</v>
+        <v>25.294656299917</v>
       </c>
     </row>
     <row r="37">
@@ -1755,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="n">
         <v>70</v>
@@ -1764,28 +1764,28 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0.924</v>
+        <v>0.927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9435</v>
+        <v>0.962</v>
       </c>
       <c r="G37" t="n">
-        <v>4.48372355077062</v>
+        <v>4.20866809335144</v>
       </c>
       <c r="H37" t="n">
-        <v>3.12765217603072</v>
+        <v>2.78104141366225</v>
       </c>
       <c r="I37" t="n">
-        <v>48.4656608730031</v>
+        <v>47.3030190112126</v>
       </c>
       <c r="J37" t="n">
-        <v>30.6281198130218</v>
+        <v>26.4044513251557</v>
       </c>
       <c r="K37" t="n">
-        <v>26.5884824833378</v>
+        <v>26.8518256654585</v>
       </c>
       <c r="L37" t="n">
-        <v>25.4048798624339</v>
+        <v>25.4224902070832</v>
       </c>
     </row>
     <row r="38">
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C38" t="n">
         <v>70</v>
@@ -1802,28 +1802,28 @@
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9325</v>
+        <v>0.9215</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9565</v>
+        <v>0.955</v>
       </c>
       <c r="G38" t="n">
-        <v>4.31461534669306</v>
+        <v>4.38954076394333</v>
       </c>
       <c r="H38" t="n">
-        <v>3.11065404026113</v>
+        <v>3.11416730424284</v>
       </c>
       <c r="I38" t="n">
-        <v>48.9401494157153</v>
+        <v>48.0665255919984</v>
       </c>
       <c r="J38" t="n">
-        <v>29.8838055795369</v>
+        <v>27.6974167861469</v>
       </c>
       <c r="K38" t="n">
-        <v>26.8243379844895</v>
+        <v>26.4491155353904</v>
       </c>
       <c r="L38" t="n">
-        <v>25.6922972418047</v>
+        <v>25.2799018057492</v>
       </c>
     </row>
     <row r="39">
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
         <v>70</v>
@@ -1840,28 +1840,28 @@
         <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>0.928</v>
+        <v>0.922</v>
       </c>
       <c r="F39" t="n">
-        <v>0.954</v>
+        <v>0.948</v>
       </c>
       <c r="G39" t="n">
-        <v>4.42973378945655</v>
+        <v>4.39027572130723</v>
       </c>
       <c r="H39" t="n">
-        <v>3.06786382706362</v>
+        <v>3.03783773129174</v>
       </c>
       <c r="I39" t="n">
-        <v>49.727349524978</v>
+        <v>48.6255089271947</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3666815769615</v>
+        <v>28.0973804551725</v>
       </c>
       <c r="K39" t="n">
-        <v>26.8379619116454</v>
+        <v>26.7370700411527</v>
       </c>
       <c r="L39" t="n">
-        <v>25.7330674848691</v>
+        <v>25.4033595419964</v>
       </c>
     </row>
     <row r="40">
@@ -1869,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C40" t="n">
         <v>70</v>
@@ -1878,28 +1878,28 @@
         <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9175</v>
+        <v>0.9345</v>
       </c>
       <c r="F40" t="n">
-        <v>0.951</v>
+        <v>0.9555</v>
       </c>
       <c r="G40" t="n">
-        <v>4.37594092094739</v>
+        <v>4.42330974859706</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92368947427026</v>
+        <v>2.96122395906214</v>
       </c>
       <c r="I40" t="n">
-        <v>50.4562942340864</v>
+        <v>47.5497608770814</v>
       </c>
       <c r="J40" t="n">
-        <v>30.6658036183616</v>
+        <v>27.3765958546362</v>
       </c>
       <c r="K40" t="n">
-        <v>26.8301009220147</v>
+        <v>27.0009648790587</v>
       </c>
       <c r="L40" t="n">
-        <v>26.0915741055721</v>
+        <v>25.514072529916</v>
       </c>
     </row>
     <row r="41">
@@ -1907,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
         <v>70</v>
@@ -1916,28 +1916,28 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9185</v>
+        <v>0.93</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9475</v>
+        <v>0.9525</v>
       </c>
       <c r="G41" t="n">
-        <v>4.35749392521146</v>
+        <v>4.43625771352021</v>
       </c>
       <c r="H41" t="n">
-        <v>3.13478149931216</v>
+        <v>3.02336899993626</v>
       </c>
       <c r="I41" t="n">
-        <v>47.5235194449148</v>
+        <v>49.7209517103999</v>
       </c>
       <c r="J41" t="n">
-        <v>29.2629491090292</v>
+        <v>28.5723229746208</v>
       </c>
       <c r="K41" t="n">
-        <v>26.8745333236306</v>
+        <v>26.8801423581725</v>
       </c>
       <c r="L41" t="n">
-        <v>25.6870101658709</v>
+        <v>25.4596535932059</v>
       </c>
     </row>
   </sheetData>
